--- a/TradeHistory.xlsx
+++ b/TradeHistory.xlsx
@@ -151,7 +151,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2018-03-02 00:56:15</t>
+          <t>2018-03-22 03:24:49</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -161,27 +161,27 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>0.00003049</t>
+          <t>0.00002819</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>0.02003193</t>
+          <t>0.00245253</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>0.01055892</t>
+          <t>0.00109328</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -193,7 +193,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2018-03-02 00:56:15</t>
+          <t>2018-03-22 03:24:49</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -203,27 +203,27 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>0.00003049</t>
+          <t>0.00002819</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>708</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>0.01515353</t>
+          <t>0.01995852</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>0.0079875</t>
+          <t>0.00894345</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -235,37 +235,37 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2018-03-02 00:36:43</t>
+          <t>2018-03-22 03:24:46</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>LTCBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0.019083</t>
+          <t>0.00002819</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>414</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0.02576205</t>
+          <t>0.01167066</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0.013636</t>
+          <t>0.00522916</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -277,37 +277,37 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2018-03-02 00:36:43</t>
+          <t>2018-03-22 03:24:46</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>LTCBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0.019079</t>
+          <t>0.00002819</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>354</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0.00858555</t>
+          <t>0.00997926</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0.00454533</t>
+          <t>0.00447573</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -319,37 +319,37 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 23:43:43</t>
+          <t>2018-03-22 03:24:36</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>BTGBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0.010334</t>
+          <t>0.00002819</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>414</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0.041336</t>
+          <t>0.01167066</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0.02152468</t>
+          <t>0.00522448</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -361,37 +361,37 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 23:26:16</t>
+          <t>2018-03-22 03:24:34</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>ADABTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0.00002738</t>
+          <t>0.00002819</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>265</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0.00961038</t>
+          <t>0.00747035</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0.00504027</t>
+          <t>0.00334259</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -403,7 +403,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 19:33:51</t>
+          <t>2018-03-22 02:37:32</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -418,22 +418,22 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0.000868</t>
+          <t>0.000797</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29.15</t>
+          <t>79.92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0.0253022</t>
+          <t>0.06369624</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0.01308575</t>
+          <t>0.02850111</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -445,37 +445,37 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 19:01:29</t>
+          <t>2018-03-22 02:31:18</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>WTCBTC</t>
+          <t>NEOBTC</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0.0017244</t>
+          <t>0.008267</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0.01974438</t>
+          <t>0.06324255</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0.0101783</t>
+          <t>0.02843013</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -487,12 +487,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 18:43:03</t>
+          <t>2018-03-22 02:27:35</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>RDNBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -502,22 +502,22 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0.00025248</t>
+          <t>0.000793</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>79.92</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0.03055008</t>
+          <t>0.06337656</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0.01544063</t>
+          <t>0.02837142</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -529,37 +529,37 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 18:37:13</t>
+          <t>2018-03-22 02:24:17</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>QTUMBTC</t>
+          <t>ADABTC</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0.002412</t>
+          <t>0.00002383</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16.05</t>
+          <t>107</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0.0387126</t>
+          <t>0.00254981</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0.01987095</t>
+          <t>0.00113901</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 14:34:14</t>
+          <t>2018-03-22 02:24:17</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -586,22 +586,22 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0.00002799</t>
+          <t>0.00002383</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>780</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0.00962856</t>
+          <t>0.0185874</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0.0049455</t>
+          <t>0.00833183</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -613,37 +613,37 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 13:27:50</t>
+          <t>2018-03-22 02:24:17</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>NEOBTC</t>
+          <t>ADABTC</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0.011849</t>
+          <t>0.00002383</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1764</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0.02097273</t>
+          <t>0.04203612</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0.01081514</t>
+          <t>0.01885201</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 10:47:49</t>
+          <t>2018-03-22 02:19:17</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -665,27 +665,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0.012195</t>
+          <t>0.008228</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0.0039024</t>
+          <t>0.00008228</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0.00195292</t>
+          <t>0.00003676</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 10:47:49</t>
+          <t>2018-03-22 02:19:10</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -707,27 +707,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0.012194</t>
+          <t>0.008228</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0.01731548</t>
+          <t>0.06286192</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0.008673</t>
+          <t>0.02809024</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -739,37 +739,37 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 10:20:59</t>
+          <t>2018-03-22 02:18:46</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>XLMBTC</t>
+          <t>LTCBTC</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0.00003114</t>
+          <t>0.01902</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0.00744246</t>
+          <t>0.0030432</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0.0037417</t>
+          <t>0.00135881</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -781,37 +781,37 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 10:20:59</t>
+          <t>2018-03-22 02:18:38</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>XLMBTC</t>
+          <t>LTCBTC</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0.00003115</t>
+          <t>0.01902</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0.028035</t>
+          <t>0.0030432</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0.01410179</t>
+          <t>0.00135869</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 08:08:20</t>
+          <t>2018-03-22 02:18:37</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SNTBTC</t>
+          <t>LTCBTC</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -838,22 +838,22 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0.00001439</t>
+          <t>0.01902</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0.00044609</t>
+          <t>0.0568698</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0.00022449</t>
+          <t>0.02539057</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 08:08:20</t>
+          <t>2018-03-22 02:18:10</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SNTBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -880,22 +880,22 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0.00001439</t>
+          <t>0.00002808</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>2242</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0.01620314</t>
+          <t>0.06295536</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0.00815441</t>
+          <t>0.02811257</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -907,37 +907,37 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 07:07:06</t>
+          <t>2018-03-22 02:16:59</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>WTCBTC</t>
+          <t>QTUMBTC</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0.0017732</t>
+          <t>0.00221</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>28.53</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0.007873008</t>
+          <t>0.0630513</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0.0039198</t>
+          <t>0.02814105</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -949,7 +949,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 07:07:06</t>
+          <t>2018-03-22 02:12:33</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -964,22 +964,22 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0.0017732</t>
+          <t>0.0015846</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>39.92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0.002978976</t>
+          <t>0.063257232</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0.00148613</t>
+          <t>0.02817315</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -991,37 +991,37 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 07:07:06</t>
+          <t>2018-03-22 02:09:55</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>WTCBTC</t>
+          <t>ADABTC</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0.0017732</t>
+          <t>0.00002367</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2651</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0.0017732</t>
+          <t>0.06274917</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0.00087771</t>
+          <t>0.02793818</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1033,37 +1033,37 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 07:07:06</t>
+          <t>2018-03-22 02:09:46</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>WTCBTC</t>
+          <t>XRPBTC</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0.0017732</t>
+          <t>0.00007597</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>331</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0.005000424</t>
+          <t>0.02514607</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0.00249351</t>
+          <t>0.01120534</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1075,37 +1075,37 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 06:46:45</t>
+          <t>2018-03-22 02:09:34</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>LTCBTC</t>
+          <t>XRPBTC</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0.019486</t>
+          <t>0.00007597</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>499</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0.03487994</t>
+          <t>0.03790903</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0.01733598</t>
+          <t>0.01688512</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1117,37 +1117,37 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 06:34:24</t>
+          <t>2018-03-22 02:09:02</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>CNDBTC</t>
+          <t>DASHBTC</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0.00001119</t>
+          <t>0.048273</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0.01774734</t>
+          <t>0.00579276</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0.00881461</t>
+          <t>0.00257369</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1159,37 +1159,37 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 03:12:33</t>
+          <t>2018-03-22 02:08:42</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>STRATBTC</t>
+          <t>XRPBTC</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0.000696</t>
+          <t>0.00007595</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>42.39</t>
+          <t>705</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0.02950344</t>
+          <t>0.05354475</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0.014584</t>
+          <t>0.02381037</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1201,37 +1201,37 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 03:12:33</t>
+          <t>2018-03-22 02:08:40</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>STRATBTC</t>
+          <t>XRPBTC</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0.000695</t>
+          <t>0.00007595</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>15.3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0.0106335</t>
+          <t>0.00356965</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0.00526386</t>
+          <t>0.00158334</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1243,12 +1243,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 02:25:13</t>
+          <t>2018-03-22 02:08:39</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>CNDBTC</t>
+          <t>XRPBTC</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1258,22 +1258,22 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0.00001148</t>
+          <t>0.00007595</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0.01695596</t>
+          <t>0.0012152</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0.00830639</t>
+          <t>0.0005426</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 02:21:49</t>
+          <t>2018-03-22 02:08:39</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>SNTBTC</t>
+          <t>XRPBTC</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1300,22 +1300,22 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0.00001477</t>
+          <t>0.00007595</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0.0159516</t>
+          <t>0.00463295</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0.00782523</t>
+          <t>0.00205479</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1327,37 +1327,37 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 01:36:22</t>
+          <t>2018-03-22 02:08:28</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>ADABTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0.00002862</t>
+          <t>0.0009748</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>51.82</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0.00984528</t>
+          <t>0.050514136</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0.00488554</t>
+          <t>0.02245841</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1369,12 +1369,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 00:49:21</t>
+          <t>2018-03-22 02:08:19</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>RDNBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1384,22 +1384,22 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0.0002594</t>
+          <t>0.0009748</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0.0306092</t>
+          <t>0.0019496</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0.01502504</t>
+          <t>0.00086414</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1411,37 +1411,37 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 00:45:46</t>
+          <t>2018-03-22 02:08:18</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>VIBEBTC</t>
+          <t>NEOBTC</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0.00003676</t>
+          <t>0.008196</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0.01834324</t>
+          <t>0.00008196</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0.00898591</t>
+          <t>0.00003557</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1453,12 +1453,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 00:33:32</t>
+          <t>2018-03-22 02:08:18</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>VENBTC</t>
+          <t>NEOBTC</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1468,22 +1468,22 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0.0004394</t>
+          <t>0.008196</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0.0276822</t>
+          <t>0.06261744</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0.01360731</t>
+          <t>0.02784348</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1495,37 +1495,37 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 00:23:12</t>
+          <t>2018-03-22 02:08:09</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>XVGBTC</t>
+          <t>LTCBTC</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>0.00000516</t>
+          <t>0.018989</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>0.00648612</t>
+          <t>0.06285359</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>0.0031854</t>
+          <t>0.02793137</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1537,37 +1537,37 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2018-03-01 00:23:12</t>
+          <t>2018-03-22 02:07:59</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>XVGBTC</t>
+          <t>ETHBTC</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>0.00000517</t>
+          <t>0.063426</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>5472</t>
+          <t>0.703</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0.02829024</t>
+          <t>0.044588478</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0.01386675</t>
+          <t>0.01979749</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1579,12 +1579,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 19:12:12</t>
+          <t>2018-03-22 02:07:59</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>QTUMBTC</t>
+          <t>ETHBTC</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1594,22 +1594,22 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0.002466</t>
+          <t>0.063428</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>15.83</t>
+          <t>0.236</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0.03903678</t>
+          <t>0.014969008</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0.01952585</t>
+          <t>0.00664357</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1621,12 +1621,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 18:50:52</t>
+          <t>2018-03-22 02:07:59</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>XVGBTC</t>
+          <t>ETHBTC</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1636,22 +1636,22 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0.00000529</t>
+          <t>0.063427</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>4377</t>
+          <t>0.063</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0.02315433</t>
+          <t>0.003995901</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0.01161879</t>
+          <t>0.00177635</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 18:50:52</t>
+          <t>2018-03-22 02:07:47</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>XVGBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>0.00000529</t>
+          <t>0.0009748</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>0.01044775</t>
+          <t>0.009748</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>0.00524201</t>
+          <t>0.00433196</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1705,37 +1705,37 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 18:03:07</t>
+          <t>2018-03-22 02:07:40</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>ETCBTC</t>
+          <t>DASHBTC</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>0.00315</t>
+          <t>0.048273</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>0.021</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>0.0363825</t>
+          <t>0.001013733</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0.01825147</t>
+          <t>0.00044401</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1747,7 +1747,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 17:17:59</t>
+          <t>2018-03-22 02:07:27</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -1762,22 +1762,22 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>0.003215</t>
+          <t>0.00226</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>19.76</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>0.00466175</t>
+          <t>0.0446576</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>0.00232279</t>
+          <t>0.01983126</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1789,7 +1789,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 17:17:59</t>
+          <t>2018-03-22 02:07:24</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -1804,22 +1804,22 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>0.003215</t>
+          <t>0.00226</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>0.0320214</t>
+          <t>0.0027346</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>0.01596052</t>
+          <t>0.0012062</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1831,12 +1831,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 17:01:22</t>
+          <t>2018-03-22 02:07:19</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>HSRBTC</t>
+          <t>DASHBTC</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -1846,22 +1846,22 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>0.000895</t>
+          <t>0.048348</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>29.15</t>
+          <t>1.072</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>0.02608925</t>
+          <t>0.051829056</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>0.01304462</t>
+          <t>0.02303104</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -1873,37 +1873,37 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 16:19:33</t>
+          <t>2018-03-22 02:07:04</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>BCDBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>0.00326</t>
+          <t>0.000784</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>10.139</t>
+          <t>15.07</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>0.03305314</t>
+          <t>0.01181488</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>0.01640028</t>
+          <t>0.00523467</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -1915,12 +1915,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 16:08:16</t>
+          <t>2018-03-22 02:07:02</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>BTGBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1930,22 +1930,22 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>0.010613</t>
+          <t>0.000784</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>0.02791219</t>
+          <t>0.009408</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>0.01381598</t>
+          <t>0.00416999</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1957,12 +1957,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 16:08:16</t>
+          <t>2018-03-22 02:07:00</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>BTGBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1972,22 +1972,22 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>0.010613</t>
+          <t>0.000784</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>0.0137969</t>
+          <t>0.00299488</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>0.00683371</t>
+          <t>0.00132409</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -1999,12 +1999,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 15:54:12</t>
+          <t>2018-03-22 02:07:00</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>STRATBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -2014,22 +2014,22 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>0.000712</t>
+          <t>0.000784</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>57.2</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>0.0407264</t>
+          <t>0.0038024</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>0.02018639</t>
+          <t>0.00168559</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2041,12 +2041,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 15:15:20</t>
+          <t>2018-03-22 02:07:00</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>ZECBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>0.03689</t>
+          <t>0.000784</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>0.892</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>0.03290588</t>
+          <t>0.00252448</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>0.01616072</t>
+          <t>0.00111781</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -2083,12 +2083,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 13:20:31</t>
+          <t>2018-03-22 02:06:59</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>ADABTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -2098,22 +2098,22 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>0.00002928</t>
+          <t>0.000784</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>19.92</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>0.0092232</t>
+          <t>0.01561728</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>0.00462851</t>
+          <t>0.00692867</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -2125,37 +2125,37 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 13:02:53</t>
+          <t>2018-03-22 02:06:59</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>ICXBNB</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>0.34801</t>
+          <t>0.000784</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>21.04</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>2.0636993</t>
+          <t>0.01649536</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>0.00102813</t>
+          <t>0.00731902</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -2167,12 +2167,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 13:02:53</t>
+          <t>2018-03-22 02:06:56</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>ICXBNB</t>
+          <t>DASHBTC</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -2182,22 +2182,22 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>0.34801</t>
+          <t>0.048348</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.227</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>0.4350125</t>
+          <t>0.010974996</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>0.00021672</t>
+          <t>0.00488088</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -2209,37 +2209,37 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:48:38</t>
+          <t>2018-03-22 02:06:46</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>VENBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>0.00047523</t>
+          <t>0.002261</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>0.02328627</t>
+          <t>0.00122094</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>0.01159212</t>
+          <t>0.00054313</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -2251,37 +2251,37 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:48:38</t>
+          <t>2018-03-22 02:06:46</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>VENBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>0.00047523</t>
+          <t>0.00226</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>0.00522753</t>
+          <t>0.0145544</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>0.00260231</t>
+          <t>0.00647315</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -2293,37 +2293,37 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:48:38</t>
+          <t>2018-03-22 02:06:27</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>VENBTC</t>
+          <t>QTUMBTC</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>0.00047522</t>
+          <t>0.002202</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>28.53</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>0.00142566</t>
+          <t>0.06282306</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>0.00070972</t>
+          <t>0.02797969</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -2335,12 +2335,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:41:47</t>
+          <t>2018-03-22 02:06:13</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>CNDBTC</t>
+          <t>XRPBTC</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -2350,22 +2350,22 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>0.00001233</t>
+          <t>0.000076</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>829</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>0.0151659</t>
+          <t>0.063004</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>0.00755198</t>
+          <t>0.02818941</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2377,37 +2377,37 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:41:44</t>
+          <t>2018-03-22 02:05:25</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>CNDBTC</t>
+          <t>BTGBTC</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>0.00001233</t>
+          <t>0.007233</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>0.00304551</t>
+          <t>0.06350574</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>0.00151487</t>
+          <t>0.02847278</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2419,37 +2419,37 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:39:47</t>
+          <t>2018-03-22 02:05:13</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>XVGBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>0.00000551</t>
+          <t>0.00002816</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>3096</t>
+          <t>328</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>0.01705896</t>
+          <t>0.00923648</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>0.00853898</t>
+          <t>0.00414796</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2461,37 +2461,37 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:39:02</t>
+          <t>2018-03-22 02:05:13</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>XVGBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>0.00000551</t>
+          <t>0.00002817</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>573</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>0.00825949</t>
+          <t>0.01614141</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>0.00412569</t>
+          <t>0.00724546</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -2503,37 +2503,37 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:38:44</t>
+          <t>2018-03-22 02:05:13</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>XVGBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>0.00000551</t>
+          <t>0.00002815</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>135</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>0.00551</t>
+          <t>0.00380025</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>0.00274977</t>
+          <t>0.00170587</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -2545,37 +2545,37 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:38:43</t>
+          <t>2018-03-22 02:05:13</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>XVGBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>0.00000551</t>
+          <t>0.00002815</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>0.00417107</t>
+          <t>0.03375185</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>0.00208157</t>
+          <t>0.01514634</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -2587,12 +2587,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:38:25</t>
+          <t>2018-03-22 02:04:53</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>SNTBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>0.00001542</t>
+          <t>0.000784</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>0.0166536</t>
+          <t>0.00747936</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>0.00835252</t>
+          <t>0.00336826</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2629,12 +2629,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:36:47</t>
+          <t>2018-03-22 02:04:53</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>POWRBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -2644,22 +2644,22 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>0.00005432</t>
+          <t>0.000786</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>70.38</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>0.03242904</t>
+          <t>0.05531868</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>0.01620855</t>
+          <t>0.02484892</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2671,37 +2671,37 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:35:57</t>
+          <t>2018-03-22 02:04:41</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>LTCBTC</t>
+          <t>ADABTC</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>0.01975</t>
+          <t>0.00002371</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>101</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>0.0353525</t>
+          <t>0.00239471</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>0.0177266</t>
+          <t>0.00106822</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2713,12 +2713,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:33:16</t>
+          <t>2018-03-22 02:04:40</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>VIBEBTC</t>
+          <t>ADABTC</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -2728,22 +2728,22 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>0.00003755</t>
+          <t>0.00002371</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>421</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>0.01731055</t>
+          <t>0.00998191</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>0.00866386</t>
+          <t>0.00447935</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2755,12 +2755,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:18:56</t>
+          <t>2018-03-22 02:04:22</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>ETHBTC</t>
+          <t>QTUMBTC</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -2770,22 +2770,22 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>0.080492</t>
+          <t>0.002202</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>0.416</t>
+          <t>28.53</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>0.033484672</t>
+          <t>0.06282306</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>0.01668267</t>
+          <t>0.02792108</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2797,37 +2797,37 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:04:49</t>
+          <t>2018-03-22 02:04:14</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>WAVESBTC</t>
+          <t>ADABTC</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>0.0005969</t>
+          <t>0.00002371</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>48.23</t>
+          <t>2085</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>0.028788487</t>
+          <t>0.04943535</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>0.01429941</t>
+          <t>0.02197724</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2839,37 +2839,37 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 06:04:49</t>
+          <t>2018-03-22 02:04:09</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>WAVESBTC</t>
+          <t>ADABTC</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>0.0005969</t>
+          <t>0.00002371</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>0.00620776</t>
+          <t>0.00104324</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>0.00308343</t>
+          <t>0.0004623</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2881,37 +2881,37 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 05:44:54</t>
+          <t>2018-03-22 02:04:02</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>BTSBTC</t>
+          <t>XRPBTC</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>0.00002033</t>
+          <t>0.0000759</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>0.0250059</t>
+          <t>0.0134343</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>0.01240371</t>
+          <t>0.00596497</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2923,37 +2923,37 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 05:35:49</t>
+          <t>2018-03-22 02:04:00</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>QTUMBTC</t>
+          <t>XRPBTC</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>0.002515</t>
+          <t>0.0000759</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>15.83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>0.03981245</t>
+          <t>0.006072</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>0.0197816</t>
+          <t>0.00269357</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2965,37 +2965,37 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 05:25:53</t>
+          <t>2018-03-22 02:04:00</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>XLMBTC</t>
+          <t>XRPBTC</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>0.00003267</t>
+          <t>0.0000759</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>258</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>0.03721113</t>
+          <t>0.0195822</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>0.01840773</t>
+          <t>0.00870299</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -3007,7 +3007,7 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 05:16:05</t>
+          <t>2018-03-22 02:04:00</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -3017,27 +3017,27 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>0.00008575</t>
+          <t>0.0000759</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>313</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>0.03335675</t>
+          <t>0.0237567</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>0.01652142</t>
+          <t>0.01056093</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -3049,12 +3049,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 05:08:13</t>
+          <t>2018-03-22 01:55:38</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>WTCBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -3064,22 +3064,22 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>0.0020115</t>
+          <t>0.0009857</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>0.01999431</t>
+          <t>0.003814659</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>0.00987178</t>
+          <t>0.00167837</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -3091,12 +3091,12 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 05:08:04</t>
+          <t>2018-03-22 01:55:38</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>SUBBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -3106,22 +3106,22 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>0.00005174</t>
+          <t>0.0009857</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>0.00201786</t>
+          <t>0.001222268</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>0.00099509</t>
+          <t>0.00053777</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
@@ -3133,12 +3133,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 05:07:30</t>
+          <t>2018-03-22 01:55:38</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>SUBBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -3148,22 +3148,22 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>0.00005174</t>
+          <t>0.0009843</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>58.71</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>0.00248352</t>
+          <t>0.057788253</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>0.00122497</t>
+          <t>0.02546186</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -3175,37 +3175,37 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 05:07:27</t>
+          <t>2018-03-22 01:51:58</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>BNBBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>0.0010137</t>
+          <t>0.0004164</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>160.26</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>0.0050685</t>
+          <t>0.066732264</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.02944395</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -3217,12 +3217,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 04:21:51</t>
+          <t>2018-03-22 01:08:09</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>BTGBTC</t>
+          <t>ADABTC</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -3232,22 +3232,22 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>0.010907</t>
+          <t>0.00002371</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>2473</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>0.04286451</t>
+          <t>0.05863483</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>0.02130442</t>
+          <t>0.02569857</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -3259,12 +3259,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 00:34:21</t>
+          <t>2018-03-22 01:08:08</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>RDNBTC</t>
+          <t>ADABTC</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -3274,22 +3274,22 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>0.00028529</t>
+          <t>0.00002371</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>178</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>0.03366422</t>
+          <t>0.00422038</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>0.01676505</t>
+          <t>0.00184971</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -3301,12 +3301,12 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 00:16:15</t>
+          <t>2018-03-22 00:09:23</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>ETHBTC</t>
+          <t>QTUMBTC</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -3316,22 +3316,22 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>0.082283</t>
+          <t>0.002215</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>28.51</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>0.002550773</t>
+          <t>0.06314965</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>0.00126292</t>
+          <t>0.02799007</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -3343,37 +3343,37 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 00:16:15</t>
+          <t>2018-03-21 23:50:42</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>ETHBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>0.082284</t>
+          <t>0.0000282</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>0.229</t>
+          <t>2235</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>0.018843036</t>
+          <t>0.063027</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>0.00936754</t>
+          <t>0.02828327</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
@@ -3385,12 +3385,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 00:16:15</t>
+          <t>2018-03-21 23:35:26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>ETHBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -3400,22 +3400,22 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>0.082283</t>
+          <t>0.000956</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>14.9</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>0.0082283</t>
+          <t>0.0142444</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>0.00408711</t>
+          <t>0.00639827</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -3427,12 +3427,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 00:16:15</t>
+          <t>2018-03-21 23:35:26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>ETHBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -3442,22 +3442,22 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>0.082283</t>
+          <t>0.0009556</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>0.00164566</t>
+          <t>0.009871348</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>0.00081543</t>
+          <t>0.00443026</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -3469,12 +3469,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>2018-02-28 00:16:15</t>
+          <t>2018-03-21 23:35:26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>ETHBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -3484,22 +3484,22 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>0.082283</t>
+          <t>0.0009556</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>16.19</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>0.00246849</t>
+          <t>0.015471164</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>0.00122315</t>
+          <t>0.00694644</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
@@ -3511,37 +3511,37 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 23:41:43</t>
+          <t>2018-03-21 23:35:26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>ZECBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>0.038204</t>
+          <t>0.0009556</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>0.892</t>
+          <t>22.37</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>0.034077968</t>
+          <t>0.021376772</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>0.01702026</t>
+          <t>0.00960639</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
@@ -3553,12 +3553,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 22:06:18</t>
+          <t>2018-03-21 23:28:38</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>HSRBTC</t>
+          <t>IOTABTC</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -3568,22 +3568,22 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>0.000918</t>
+          <t>0.000152</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>398</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>0.02628234</t>
+          <t>0.060496</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>0.01314262</t>
+          <t>0.0270524</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -3595,12 +3595,12 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 20:00:43</t>
+          <t>2018-03-21 23:21:32</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>LTCBTC</t>
+          <t>ADABTC</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -3610,22 +3610,22 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>0.020214</t>
+          <t>0.00002296</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2648</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>0.03598092</t>
+          <t>0.06079808</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>0.01774686</t>
+          <t>0.02725235</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -3637,37 +3637,37 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 19:51:49</t>
+          <t>2018-03-21 23:01:17</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>VENBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>0.00049012</t>
+          <t>0.0003919</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>160.26</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>0.02989732</t>
+          <t>0.062805894</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>0.01474213</t>
+          <t>0.02774058</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -3679,37 +3679,37 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 19:21:03</t>
+          <t>2018-03-21 22:48:41</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>BCDBTC</t>
+          <t>QTUMBTC</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>0.003405</t>
+          <t>0.002144</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>9.837</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>0.033494985</t>
+          <t>0.00137216</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>0.01661208</t>
+          <t>0.0006147</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -3721,37 +3721,37 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 19:01:28</t>
+          <t>2018-03-21 22:46:13</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>POWRBTC</t>
+          <t>QTUMBTC</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>0.00005585</t>
+          <t>0.002136</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>27.87</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>0.03289565</t>
+          <t>0.05953032</t>
         </is>
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>0.0162839</t>
+          <t>0.02686522</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -3763,12 +3763,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 18:04:11</t>
+          <t>2018-03-21 22:01:14</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>XLMBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -3778,22 +3778,22 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>0.00003338</t>
+          <t>0.000757</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>0.01582212</t>
+          <t>0.0029523</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>0.00778313</t>
+          <t>0.00134701</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -3805,12 +3805,12 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 18:04:11</t>
+          <t>2018-03-21 22:01:14</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>XLMBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -3820,22 +3820,22 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>0.00003338</t>
+          <t>0.000757</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>0.0220308</t>
+          <t>0.00998483</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>0.01083341</t>
+          <t>0.00457252</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -3847,12 +3847,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 17:30:46</t>
+          <t>2018-03-21 22:01:14</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>XRPBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -3862,22 +3862,22 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>0.00008768</t>
+          <t>0.000757</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>65.58</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>0.03401984</t>
+          <t>0.04964406</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>0.0170117</t>
+          <t>0.02274351</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -3889,37 +3889,37 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 15:12:52</t>
+          <t>2018-03-21 22:01:14</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>REQBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>0.00002831</t>
+          <t>0.000757</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>0.01978869</t>
+          <t>0.00150643</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>0.01007336</t>
+          <t>0.00068725</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -3931,12 +3931,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 14:01:20</t>
+          <t>2018-03-21 21:47:29</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>ETCBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -3946,22 +3946,22 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>0.003293</t>
+          <t>0.000986</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>44.48</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>0.03757313</t>
+          <t>0.04385728</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>0.01860977</t>
+          <t>0.02027282</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -3973,12 +3973,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 11:00:23</t>
+          <t>2018-03-21 21:47:28</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>ETHBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -3988,22 +3988,22 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>0.082752</t>
+          <t>0.000986</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>0.03392832</t>
+          <t>0.004437</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>0.01653588</t>
+          <t>0.00205098</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -4015,37 +4015,37 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 10:23:26</t>
+          <t>2018-03-21 21:47:26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>RDNBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>0.00029143</t>
+          <t>0.000986</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>14.81</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>0.03409731</t>
+          <t>0.01460266</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>0.01651811</t>
+          <t>0.0067343</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -4057,12 +4057,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 09:32:02</t>
+          <t>2018-03-21 20:36:44</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>ETCBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -4072,22 +4072,22 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>0.00338</t>
+          <t>0.00002844</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>513</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>0.0383968</t>
+          <t>0.01458972</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>0.01880509</t>
+          <t>0.00671085</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -4099,37 +4099,37 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 09:18:08</t>
+          <t>2018-03-21 20:36:43</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>TRXBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>0.00000396</t>
+          <t>0.00002844</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>45103</t>
+          <t>1723</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>0.17860788</t>
+          <t>0.04900212</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>0.08727047</t>
+          <t>0.02255362</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -4141,37 +4141,37 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 08:50:39</t>
+          <t>2018-03-21 20:25:34</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>ZECBTC</t>
+          <t>IOTABTC</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>0.039001</t>
+          <t>0.00015701</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>0.886</t>
+          <t>398</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>0.034554886</t>
+          <t>0.06248998</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>0.01678328</t>
+          <t>0.02876093</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
@@ -4183,7 +4183,7 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 08:26:08</t>
+          <t>2018-03-21 18:27:37</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -4198,22 +4198,22 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>0.020823</t>
+          <t>0.018975</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>0.01790778</t>
+          <t>0.018216</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>0.00873209</t>
+          <t>0.00849626</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
@@ -4225,7 +4225,7 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 08:26:08</t>
+          <t>2018-03-21 18:27:37</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -4240,22 +4240,22 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>0.020819</t>
+          <t>0.018975</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>0.01915348</t>
+          <t>0.0330165</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>0.00934131</t>
+          <t>0.01539948</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 05:28:44</t>
+          <t>2018-03-21 18:27:37</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>POWRBTC</t>
+          <t>LTCBTC</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -4282,22 +4282,22 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>0.00005795</t>
+          <t>0.018975</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>0.03413255</t>
+          <t>0.01157475</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>0.0176177</t>
+          <t>0.00539867</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -4309,12 +4309,12 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 04:48:30</t>
+          <t>2018-03-21 18:11:34</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>BCDBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -4324,22 +4324,22 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>0.003548</t>
+          <t>0.000741</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>9.837</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>0.034901676</t>
+          <t>0.009633</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>0.01802586</t>
+          <t>0.00448129</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -4351,12 +4351,12 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 03:50:07</t>
+          <t>2018-03-21 18:11:34</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>LUNBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -4366,22 +4366,22 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>0.0018902</t>
+          <t>0.000741</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>71.66</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>0.0746629</t>
+          <t>0.05310006</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>0.0384266</t>
+          <t>0.02470229</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -4393,37 +4393,37 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 03:50:07</t>
+          <t>2018-03-21 18:03:44</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>LUNBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>0.0018903</t>
+          <t>0.0003804</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>165.33</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>0.020188404</t>
+          <t>0.062891532</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>0.01038977</t>
+          <t>0.02947131</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -4435,37 +4435,37 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 03:50:07</t>
+          <t>2018-03-21 18:03:44</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>LUNBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>0.0018907</t>
+          <t>0.0003804</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>0.012762225</t>
+          <t>0.0011412</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>0.00656657</t>
+          <t>0.0005343</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
@@ -4477,12 +4477,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 03:50:07</t>
+          <t>2018-03-21 18:00:06</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>LUNBTC</t>
+          <t>ETHBTC</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -4492,22 +4492,22 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>0.0018905</t>
+          <t>0.062691</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>0.01440561</t>
+          <t>0.0062691</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>0.00741293</t>
+          <t>0.00292861</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -4519,7 +4519,7 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 01:33:38</t>
+          <t>2018-03-21 18:00:06</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -4529,27 +4529,27 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>0.0845</t>
+          <t>0.062691</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>0.408</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>0.034476</t>
+          <t>0.0313455</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>0.01782096</t>
+          <t>0.01464309</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -4561,37 +4561,37 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 01:18:33</t>
+          <t>2018-03-21 18:00:06</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>POWRBTC</t>
+          <t>ETHBTC</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>0.0000592</t>
+          <t>0.062692</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>0.371</t>
         </is>
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>0.0346912</t>
+          <t>0.023258732</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>0.01790582</t>
+          <t>0.01086517</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -4603,37 +4603,37 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>2018-02-27 00:54:34</t>
+          <t>2018-03-21 18:00:06</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>BTGBTC</t>
+          <t>ETHBTC</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>0.011143</t>
+          <t>0.062706</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>0.04178625</t>
+          <t>0.000062706</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>0.02153164</t>
+          <t>0.00002928</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -4645,37 +4645,37 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 23:47:37</t>
+          <t>2018-03-21 18:00:06</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>REQBTC</t>
+          <t>ETHBTC</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>0.00002902</t>
+          <t>0.062692</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>0.01892104</t>
+          <t>0.00188076</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>0.00982959</t>
+          <t>0.00087858</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -4687,37 +4687,37 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 23:17:32</t>
+          <t>2018-03-21 17:53:09</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>LUNBTC</t>
+          <t>XRPBTC</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>0.0019816</t>
+          <t>0.00007581</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>64.44</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>0.127694304</t>
+          <t>0.00272916</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>0.06718585</t>
+          <t>0.00127304</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -4729,37 +4729,37 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 21:50:11</t>
+          <t>2018-03-21 17:53:07</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>LTCBTC</t>
+          <t>XRPBTC</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>0.02128</t>
+          <t>0.00007581</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>749</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>0.0336224</t>
+          <t>0.05678169</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>0.01769473</t>
+          <t>0.02645829</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 21:44:35</t>
+          <t>2018-03-21 17:53:06</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>HSRBTC</t>
+          <t>XRPBTC</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -4786,22 +4786,22 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>0.000932</t>
+          <t>0.00007581</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>0.02668316</t>
+          <t>0.00325983</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>0.01400396</t>
+          <t>0.00151896</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -4813,12 +4813,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 21:41:08</t>
+          <t>2018-03-21 17:51:42</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>VENBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -4828,22 +4828,22 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>0.0005345</t>
+          <t>0.00002809</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>819</t>
         </is>
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>0.0326045</t>
+          <t>0.02300571</t>
         </is>
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>0.01709906</t>
+          <t>0.01071252</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -4855,37 +4855,37 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 21:31:52</t>
+          <t>2018-03-21 17:51:42</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>TRXBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>0.00000405</t>
+          <t>0.00002809</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>900</t>
         </is>
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>0.01215</t>
+          <t>0.025281</t>
         </is>
       </c>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>0.00636268</t>
+          <t>0.011772</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -4897,37 +4897,37 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 21:31:52</t>
+          <t>2018-03-21 17:51:42</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>TRXBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>0.00000405</t>
+          <t>0.00002809</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>9270</t>
+          <t>517</t>
         </is>
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>0.0375435</t>
+          <t>0.01452253</t>
         </is>
       </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>0.01967505</t>
+          <t>0.00676236</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -4939,37 +4939,37 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 21:31:52</t>
+          <t>2018-03-21 17:46:09</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>TRXBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>0.00000405</t>
+          <t>0.0003732</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>17433</t>
+          <t>61.06</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>0.07060365</t>
+          <t>0.022787592</t>
         </is>
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>0.03700209</t>
+          <t>0.01071348</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -4981,37 +4981,37 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 21:31:52</t>
+          <t>2018-03-21 17:46:09</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>TRXBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>0.00000405</t>
+          <t>0.0003732</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>0.00560115</t>
+          <t>0.003627504</t>
         </is>
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>0.00293501</t>
+          <t>0.00170545</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -5023,37 +5023,37 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 21:31:52</t>
+          <t>2018-03-21 17:46:07</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>TRXBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>0.00000405</t>
+          <t>0.0003732</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>5491</t>
+          <t>72.55</t>
         </is>
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>0.02223855</t>
+          <t>0.02707566</t>
         </is>
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>0.01165618</t>
+          <t>0.01273172</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -5065,37 +5065,37 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 21:31:52</t>
+          <t>2018-03-21 17:46:07</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>TRXBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>0.00000405</t>
+          <t>0.0003732</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>7500</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>0.030375</t>
+          <t>0.00933</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>0.01592243</t>
+          <t>0.00438722</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -5107,12 +5107,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 21:31:52</t>
+          <t>2018-03-21 17:44:47</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>TRXBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -5122,22 +5122,22 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>0.00000405</t>
+          <t>0.0009496</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>42.79</t>
         </is>
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>0.00405</t>
+          <t>0.040633384</t>
         </is>
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>0.0021174</t>
+          <t>0.01905074</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 20:46:24</t>
+          <t>2018-03-21 17:44:47</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>VENBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
@@ -5164,22 +5164,22 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>0.00054778</t>
+          <t>0.0009496</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>0.0301279</t>
+          <t>0.009942312</t>
         </is>
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>0.01571041</t>
+          <t>0.00467105</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -5191,12 +5191,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 20:10:33</t>
+          <t>2018-03-21 17:44:47</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>BCDBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -5206,22 +5206,22 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>0.003632</t>
+          <t>0.0009496</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>9.746</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>0.035397472</t>
+          <t>0.009942312</t>
         </is>
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>0.01841831</t>
+          <t>0.00467105</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
@@ -5233,12 +5233,12 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 19:08:36</t>
+          <t>2018-03-21 17:43:51</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>XLMBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -5248,22 +5248,22 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>0.00003495</t>
+          <t>0.002176</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="F123" s="2" t="inlineStr">
         <is>
-          <t>0.0396333</t>
+          <t>0.00126208</t>
         </is>
       </c>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>0.02066983</t>
+          <t>0.00059354</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
@@ -5275,12 +5275,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 16:15:14</t>
+          <t>2018-03-21 17:43:31</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>XRPBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -5290,22 +5290,22 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>0.00009072</t>
+          <t>0.002181</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>23.36</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>0.01424304</t>
+          <t>0.05094816</t>
         </is>
       </c>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>0.00739446</t>
+          <t>0.02391906</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
@@ -5317,12 +5317,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 16:15:14</t>
+          <t>2018-03-21 17:43:18</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>XRPBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -5332,22 +5332,22 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>0.00009073</t>
+          <t>0.002181</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>0.02095863</t>
+          <t>0.004362</t>
         </is>
       </c>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>0.01087975</t>
+          <t>0.00204711</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -5359,12 +5359,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 14:20:42</t>
+          <t>2018-03-21 17:43:17</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>NEOBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -5374,22 +5374,22 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>0.012833</t>
+          <t>0.002181</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>0.02232942</t>
+          <t>0.0010905</t>
         </is>
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>0.01148414</t>
+          <t>0.00051182</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
@@ -5401,12 +5401,12 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 14:12:31</t>
+          <t>2018-03-21 17:43:17</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>ZECBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
@@ -5416,22 +5416,22 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>0.039842</t>
+          <t>0.002181</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>0.886</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>0.035300012</t>
+          <t>0.00329331</t>
         </is>
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>0.01813232</t>
+          <t>0.00154571</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -5443,12 +5443,12 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 13:26:59</t>
+          <t>2018-03-21 17:32:58</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>ETHBTC</t>
+          <t>NEOBTC</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -5458,22 +5458,22 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>0.086109</t>
+          <t>0.008212</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>0.408</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>0.035132472</t>
+          <t>0.00024636</t>
         </is>
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>0.0180193</t>
+          <t>0.00011477</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
@@ -5485,12 +5485,12 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 13:24:50</t>
+          <t>2018-03-21 17:32:55</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>ETCBTC</t>
+          <t>NEOBTC</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -5500,22 +5500,22 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>0.003483</t>
+          <t>0.008212</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>0.03956688</t>
+          <t>0.028742</t>
         </is>
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>0.02021193</t>
+          <t>0.0133671</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 12:56:43</t>
+          <t>2018-03-21 17:32:55</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>TRXBTC</t>
+          <t>NEOBTC</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -5542,22 +5542,22 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>0.00000407</t>
+          <t>0.008212</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>45077</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>0.18346339</t>
+          <t>0.00377752</t>
         </is>
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>0.09528579</t>
+          <t>0.00175874</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 12:29:44</t>
+          <t>2018-03-21 17:32:55</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>REQBTC</t>
+          <t>NEOBTC</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
@@ -5584,22 +5584,22 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>0.00003068</t>
+          <t>0.008211</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>0.02000336</t>
+          <t>0.03005226</t>
         </is>
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>0.01036121</t>
+          <t>0.01399351</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -5611,37 +5611,37 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 12:16:16</t>
+          <t>2018-03-21 17:09:38</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>NEOBTC</t>
+          <t>BTGBTC</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>0.013154</t>
+          <t>0.007149</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>0.02025716</t>
+          <t>0.0493281</t>
         </is>
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>0.01054439</t>
+          <t>0.02283238</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -5653,12 +5653,12 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 11:49:18</t>
+          <t>2018-03-21 17:09:38</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>LUNBTC</t>
+          <t>BTGBTC</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
@@ -5668,22 +5668,22 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>0.0020594</t>
+          <t>0.007149</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>64.44</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>0.132707736</t>
+          <t>0.01351161</t>
         </is>
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>0.06930212</t>
+          <t>0.00625408</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
@@ -5695,12 +5695,12 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 11:11:30</t>
+          <t>2018-03-21 17:08:22</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>STRATBTC</t>
+          <t>ADABTC</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
@@ -5710,22 +5710,22 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>0.000728</t>
+          <t>0.00002372</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>57.2</t>
+          <t>2648</t>
         </is>
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>0.0416416</t>
+          <t>0.06281056</t>
         </is>
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>0.02152465</t>
+          <t>0.02913119</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
@@ -5737,37 +5737,37 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 11:11:11</t>
+          <t>2018-03-21 16:58:23</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>RDNBTC</t>
+          <t>QTUMBTC</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>0.0003038</t>
+          <t>0.002184</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>0.0355446</t>
+          <t>0.06084624</t>
         </is>
       </c>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>0.01839963</t>
+          <t>0.02829767</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
@@ -5779,37 +5779,37 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 09:23:02</t>
+          <t>2018-03-21 16:53:31</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>VIBEBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>0.00004334</t>
+          <t>0.000373</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>170.62</t>
         </is>
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>0.01447556</t>
+          <t>0.06364126</t>
         </is>
       </c>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>0.00747877</t>
+          <t>0.02935424</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
@@ -5821,37 +5821,37 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 09:23:01</t>
+          <t>2018-03-21 16:45:21</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>VIBEBTC</t>
+          <t>IOTABTC</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>0.00004334</t>
+          <t>0.00015154</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>0.00550418</t>
+          <t>0.01500246</t>
         </is>
       </c>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>0.00284372</t>
+          <t>0.00691881</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -5863,37 +5863,37 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 09:10:02</t>
+          <t>2018-03-21 16:45:21</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>POWRBTC</t>
+          <t>IOTABTC</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>0.00006004</t>
+          <t>0.00015153</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>0.03518344</t>
+          <t>0.02545704</t>
         </is>
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>0.01816388</t>
+          <t>0.01174354</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -5905,37 +5905,37 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 07:25:38</t>
+          <t>2018-03-21 16:45:21</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>BCDBTC</t>
+          <t>IOTABTC</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>0.003931</t>
+          <t>0.00015155</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>9.746</t>
+          <t>131</t>
         </is>
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>0.038311526</t>
+          <t>0.01985305</t>
         </is>
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>0.01953194</t>
+          <t>0.00915129</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -5947,37 +5947,37 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 05:35:48</t>
+          <t>2018-03-21 16:31:23</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>TRXBTC</t>
+          <t>WTCBTC</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>0.00000416</t>
+          <t>0.0015736</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>24.59</t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>0.00293696</t>
+          <t>0.038694824</t>
         </is>
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>0.00151234</t>
+          <t>0.01770853</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -5989,37 +5989,37 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 05:35:48</t>
+          <t>2018-03-21 16:31:23</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>TRXBTC</t>
+          <t>WTCBTC</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>0.00000416</t>
+          <t>0.0015736</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>12020</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="F141" s="2" t="inlineStr">
         <is>
-          <t>0.0500032</t>
+          <t>0.005444656</t>
         </is>
       </c>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>0.02572016</t>
+          <t>0.00249172</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -6031,37 +6031,37 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 05:35:48</t>
+          <t>2018-03-21 16:31:16</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>TRXBTC</t>
+          <t>WTCBTC</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>0.00000416</t>
+          <t>0.0015731</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>10750</t>
+          <t>11.87</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>0.04472</t>
+          <t>0.018672697</t>
         </is>
       </c>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>0.02300411</t>
+          <t>0.00854953</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
@@ -6073,37 +6073,37 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 05:35:48</t>
+          <t>2018-03-21 16:25:54</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>TRXBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>0.00000416</t>
+          <t>0.0003682</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>57.35</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr">
         <is>
-          <t>0.00416</t>
+          <t>0.02111627</t>
         </is>
       </c>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>0.00213991</t>
+          <t>0.00973638</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
@@ -6115,37 +6115,37 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 05:16:54</t>
+          <t>2018-03-21 16:25:53</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>ZECBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>0.040703</t>
+          <t>0.0003682</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr">
         <is>
-          <t>0.007245134</t>
+          <t>0.00454727</t>
         </is>
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>0.00371815</t>
+          <t>0.00209629</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
@@ -6157,37 +6157,37 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 05:16:54</t>
+          <t>2018-03-21 16:25:52</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>ZECBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>0.040703</t>
+          <t>0.0003682</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>0.456</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>0.018560568</t>
+          <t>0.0081004</t>
         </is>
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>0.00953163</t>
+          <t>0.00373429</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -6199,37 +6199,37 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 05:06:19</t>
+          <t>2018-03-21 16:25:51</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>BCDBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>0.00405</t>
+          <t>0.0003682</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>9.719</t>
+          <t>78.92</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>0.03936195</t>
+          <t>0.029058344</t>
         </is>
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>0.02027194</t>
+          <t>0.01339471</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -6241,37 +6241,37 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 05:03:27</t>
+          <t>2018-03-21 16:20:39</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>QTUMBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>0.002583</t>
+          <t>0.0009857</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>63.73</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>0.02583</t>
+          <t>0.062818661</t>
         </is>
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>0.01328462</t>
+          <t>0.02891937</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -6283,12 +6283,12 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 05:03:27</t>
+          <t>2018-03-21 16:17:30</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>QTUMBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -6298,22 +6298,22 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>0.002583</t>
+          <t>0.002226</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>15.05</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr">
         <is>
-          <t>0.00423612</t>
+          <t>0.0335013</t>
         </is>
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>0.00218151</t>
+          <t>0.01549634</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
@@ -6325,37 +6325,37 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 05:01:01</t>
+          <t>2018-03-21 16:17:27</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>BCDBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>0.004046</t>
+          <t>0.002226</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>9.719</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="F149" s="2" t="inlineStr">
         <is>
-          <t>0.039323074</t>
+          <t>0.00440748</t>
         </is>
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>0.02019882</t>
+          <t>0.00203534</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -6367,12 +6367,12 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:59:26</t>
+          <t>2018-03-21 16:17:24</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>POWRBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
@@ -6382,22 +6382,22 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>0.00006132</t>
+          <t>0.002226</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="F150" s="2" t="inlineStr">
         <is>
-          <t>0.02440536</t>
+          <t>0.00291606</t>
         </is>
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>0.0125579</t>
+          <t>0.00135147</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -6409,37 +6409,37 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:56:04</t>
+          <t>2018-03-21 16:17:16</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>XMRBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>0.028408</t>
+          <t>0.002226</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>0.079</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F151" s="2" t="inlineStr">
         <is>
-          <t>0.002244232</t>
+          <t>0.008904</t>
         </is>
       </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>0.00115441</t>
+          <t>0.00411693</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
@@ -6451,12 +6451,12 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:55:55</t>
+          <t>2018-03-21 16:17:15</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>XRPBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
@@ -6466,22 +6466,22 @@
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>0.0000928</t>
+          <t>0.002226</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="F152" s="2" t="inlineStr">
         <is>
-          <t>0.0265408</t>
+          <t>0.0035616</t>
         </is>
       </c>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>0.01365507</t>
+          <t>0.00164662</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
@@ -6493,37 +6493,37 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:55:54</t>
+          <t>2018-03-21 16:17:11</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>XMRBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>0.028408</t>
+          <t>0.002226</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
-          <t>0.315</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="F153" s="2" t="inlineStr">
         <is>
-          <t>0.00894852</t>
+          <t>0.00360612</t>
         </is>
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>0.0046003</t>
+          <t>0.00166589</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -6535,37 +6535,37 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:55:48</t>
+          <t>2018-03-21 16:17:11</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>XMRBTC</t>
+          <t>ETCBTC</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>0.028408</t>
+          <t>0.002226</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>0.00880648</t>
+          <t>0.0040068</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>0.00452791</t>
+          <t>0.00185099</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
@@ -6577,7 +6577,7 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:55:32</t>
+          <t>2018-03-21 16:02:53</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -6592,22 +6592,22 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>0.00003568</t>
+          <t>0.00002915</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>102</t>
         </is>
       </c>
       <c r="F155" s="2" t="inlineStr">
         <is>
-          <t>0.03114864</t>
+          <t>0.0029733</t>
         </is>
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>0.01600863</t>
+          <t>0.00134057</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
@@ -6619,12 +6619,12 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:54:41</t>
+          <t>2018-03-21 16:02:53</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>STRATBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
@@ -6634,22 +6634,22 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>0.000743</t>
+          <t>0.00002914</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>36.06</t>
+          <t>2084</t>
         </is>
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>0.02679258</t>
+          <t>0.06072776</t>
         </is>
       </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>0.01376156</t>
+          <t>0.0275</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
@@ -6661,12 +6661,12 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:54:23</t>
+          <t>2018-03-21 14:41:56</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>RDNBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
@@ -6676,22 +6676,22 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>0.00031231</t>
+          <t>0.0010177</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>0.03029407</t>
+          <t>0.012945144</t>
         </is>
       </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>0.01556012</t>
+          <t>0.0058552</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -6703,12 +6703,12 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:53:20</t>
+          <t>2018-03-21 14:41:56</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>LUNBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
@@ -6718,22 +6718,22 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>0.0021091</t>
+          <t>0.0010177</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
-          <t>45.84</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>0.096681144</t>
+          <t>0.0498673</t>
         </is>
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>0.04974786</t>
+          <t>0.02256108</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
@@ -6745,12 +6745,12 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:52:59</t>
+          <t>2018-03-21 14:25:39</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>HSRBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -6760,22 +6760,22 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>0.000954</t>
+          <t>0.0003791</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
-          <t>18.37</t>
+          <t>172.57</t>
         </is>
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>0.01752498</t>
+          <t>0.065421287</t>
         </is>
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>0.00900123</t>
+          <t>0.02975529</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -6787,12 +6787,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:52:37</t>
+          <t>2018-03-21 13:51:40</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>ETHBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -6802,22 +6802,22 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>0.08851</t>
+          <t>0.000774</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F160" s="2" t="inlineStr">
         <is>
-          <t>0.0017702</t>
+          <t>0.01548</t>
         </is>
       </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>0.00090562</t>
+          <t>0.00696669</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -6829,12 +6829,12 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:52:37</t>
+          <t>2018-03-21 13:51:40</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>ETHBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
@@ -6844,22 +6844,22 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>0.088509</t>
+          <t>0.000773</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>69.11</t>
         </is>
       </c>
       <c r="F161" s="2" t="inlineStr">
         <is>
-          <t>0.002832288</t>
+          <t>0.05342203</t>
         </is>
       </c>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>0.00145106</t>
+          <t>0.0240414</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -6871,37 +6871,37 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:52:37</t>
+          <t>2018-03-21 13:26:18</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>ETHBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>0.088511</t>
+          <t>0.0003643</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="F162" s="2" t="inlineStr">
         <is>
-          <t>0.02212775</t>
+          <t>0.003005475</t>
         </is>
       </c>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>0.01138211</t>
+          <t>0.00136824</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -6913,37 +6913,37 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:52:27</t>
+          <t>2018-03-21 13:26:18</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>ETCBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>0.003579</t>
+          <t>0.0003643</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>164.32</t>
         </is>
       </c>
       <c r="F163" s="2" t="inlineStr">
         <is>
-          <t>0.00365058</t>
+          <t>0.059861776</t>
         </is>
       </c>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>0.00187242</t>
+          <t>0.02725208</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
@@ -6955,12 +6955,12 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:52:27</t>
+          <t>2018-03-21 13:10:01</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>ETCBTC</t>
+          <t>NEOBTC</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
@@ -6970,22 +6970,22 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>0.00358</t>
+          <t>0.008545</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr">
         <is>
-          <t>0.02148</t>
+          <t>0.00008545</t>
         </is>
       </c>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>0.01104938</t>
+          <t>0.00003613</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -6997,12 +6997,12 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:52:27</t>
+          <t>2018-03-21 13:10:01</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>ETCBTC</t>
+          <t>NEOBTC</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
@@ -7012,22 +7012,22 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>0.00358</t>
+          <t>0.008544</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr">
         <is>
-          <t>0.0110264</t>
+          <t>0.0636528</t>
         </is>
       </c>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>0.00566872</t>
+          <t>0.02874695</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
@@ -7039,37 +7039,37 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 04:51:37</t>
+          <t>2018-03-21 13:04:34</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>BCDBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>0.004182</t>
+          <t>0.0009856</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>9.246</t>
+          <t>58.58</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr">
         <is>
-          <t>0.038666772</t>
+          <t>0.057736448</t>
         </is>
       </c>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>0.01986435</t>
+          <t>0.02587874</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
@@ -7081,37 +7081,37 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 02:35:03</t>
+          <t>2018-03-21 13:00:51</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>EOSBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>0.00079505</t>
+          <t>0.000352</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>172.4</t>
         </is>
       </c>
       <c r="F167" s="2" t="inlineStr">
         <is>
-          <t>0.0143109</t>
+          <t>0.0606848</t>
         </is>
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>0.00739002</t>
+          <t>0.02724007</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -7123,12 +7123,12 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>2018-02-26 02:19:57</t>
+          <t>2018-03-21 12:59:47</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>LTCBTC</t>
+          <t>NANOBTC</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -7138,22 +7138,22 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>0.023595</t>
+          <t>0.0009835</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>0.0372801</t>
+          <t>0.00308819</t>
         </is>
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>0.01936662</t>
+          <t>0.00138591</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -7165,37 +7165,37 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 15:45:55</t>
+          <t>2018-03-21 12:29:02</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>VENBTC</t>
+          <t>BTGBTC</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>0.00059843</t>
+          <t>0.007404</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="F169" s="2" t="inlineStr">
         <is>
-          <t>0.00538587</t>
+          <t>0.06374844</t>
         </is>
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>0.00281533</t>
+          <t>0.02909705</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -7207,12 +7207,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 15:45:55</t>
+          <t>2018-03-21 11:26:07</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>VENBTC</t>
+          <t>ICXBTC</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
@@ -7222,22 +7222,22 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>0.00059871</t>
+          <t>0.000364</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>172.4</t>
         </is>
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>0.02754066</t>
+          <t>0.0627536</t>
         </is>
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>0.01438947</t>
+          <t>0.02886302</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -7249,37 +7249,37 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 14:27:21</t>
+          <t>2018-03-21 11:11:20</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>BTGBTC</t>
+          <t>WTCBTC</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>0.011445</t>
+          <t>0.0016297</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>24.63</t>
         </is>
       </c>
       <c r="F171" s="2" t="inlineStr">
         <is>
-          <t>0.04291875</t>
+          <t>0.040139511</t>
         </is>
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>0.02239474</t>
+          <t>0.01860055</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -7291,12 +7291,12 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 14:25:13</t>
+          <t>2018-03-21 11:11:18</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>VENBTC</t>
+          <t>WTCBTC</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>0.00061281</t>
+          <t>0.0016297</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>0.00245124</t>
+          <t>0.008523331</t>
         </is>
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>0.00127322</t>
+          <t>0.00394517</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -7333,12 +7333,12 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 14:25:13</t>
+          <t>2018-03-21 11:11:18</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>VENBTC</t>
+          <t>WTCBTC</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
@@ -7348,22 +7348,22 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>0.00061278</t>
+          <t>0.0016299</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>0.030639</t>
+          <t>0.008393985</t>
         </is>
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>0.01598831</t>
+          <t>0.00388034</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
@@ -7375,37 +7375,37 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 14:20:17</t>
+          <t>2018-03-21 11:11:18</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>VENBTC</t>
+          <t>WTCBTC</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>0.00061499</t>
+          <t>0.0016297</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
-          <t>0.03320946</t>
+          <t>0.006486206</t>
         </is>
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>0.0173327</t>
+          <t>0.00300055</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -7417,12 +7417,12 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:40:12</t>
+          <t>2018-03-21 10:47:54</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>VIBEBTC</t>
+          <t>ADABTC</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
@@ -7432,22 +7432,22 @@
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>0.00004337</t>
+          <t>0.0000238</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>2582</t>
         </is>
       </c>
       <c r="F175" s="2" t="inlineStr">
         <is>
-          <t>0.03964018</t>
+          <t>0.0614516</t>
         </is>
       </c>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>0.02100688</t>
+          <t>0.02877212</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
@@ -7459,12 +7459,12 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:39:53</t>
+          <t>2018-03-21 10:47:53</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>XVGBTC</t>
+          <t>ADABTC</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
@@ -7474,22 +7474,22 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>0.00000589</t>
+          <t>0.0000238</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
         <is>
-          <t>4878</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
-          <t>0.02873142</t>
+          <t>0.0029988</t>
         </is>
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>0.01522476</t>
+          <t>0.00140475</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
@@ -7501,37 +7501,37 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:39:20</t>
+          <t>2018-03-21 08:58:28</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>WTCBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>0.0021758</t>
+          <t>0.00002874</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>276</t>
         </is>
       </c>
       <c r="F177" s="2" t="inlineStr">
         <is>
-          <t>0.014599618</t>
+          <t>0.00793224</t>
         </is>
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>0.00773387</t>
+          <t>0.00384232</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
@@ -7543,37 +7543,37 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:39:12</t>
+          <t>2018-03-21 08:58:28</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>WAVESBTC</t>
+          <t>XLMBTC</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>0.000674</t>
+          <t>0.00002874</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr">
         <is>
-          <t>19.34</t>
+          <t>1910</t>
         </is>
       </c>
       <c r="F178" s="2" t="inlineStr">
         <is>
-          <t>0.01303516</t>
+          <t>0.0548934</t>
         </is>
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>0.00690824</t>
+          <t>0.02659001</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -7585,37 +7585,37 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:39:02</t>
+          <t>2018-03-21 08:58:10</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>VENBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>0.000574</t>
+          <t>0.000705</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>0.033292</t>
+          <t>0.002115</t>
         </is>
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>0.01763085</t>
+          <t>0.00102024</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -7627,37 +7627,37 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:38:54</t>
+          <t>2018-03-21 08:58:10</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>SUBBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>0.00005298</t>
+          <t>0.000705</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>0.02182776</t>
+          <t>0.00561885</t>
         </is>
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>0.01155965</t>
+          <t>0.00271046</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -7669,37 +7669,37 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:38:37</t>
+          <t>2018-03-21 08:58:10</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>SNTBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>0.00001687</t>
+          <t>0.000705</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>0.00047236</t>
+          <t>0.006909</t>
         </is>
       </c>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t>0.00024369</t>
+          <t>0.00333281</t>
         </is>
       </c>
       <c r="H181" s="2" t="inlineStr">
@@ -7711,37 +7711,37 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:38:37</t>
+          <t>2018-03-21 08:58:10</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>SNTBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>0.00001687</t>
+          <t>0.000705</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>0.0199066</t>
+          <t>0.0064155</t>
         </is>
       </c>
       <c r="G182" s="2" t="inlineStr">
         <is>
-          <t>0.01054248</t>
+          <t>0.00309475</t>
         </is>
       </c>
       <c r="H182" s="2" t="inlineStr">
@@ -7753,37 +7753,37 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:38:00</t>
+          <t>2018-03-21 08:58:10</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>OMGBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>0.001694</t>
+          <t>0.000705</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="F183" s="2" t="inlineStr">
         <is>
-          <t>0.015246</t>
+          <t>0.0014241</t>
         </is>
       </c>
       <c r="G183" s="2" t="inlineStr">
         <is>
-          <t>0.00807288</t>
+          <t>0.00068696</t>
         </is>
       </c>
       <c r="H183" s="2" t="inlineStr">
@@ -7795,37 +7795,37 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:38:00</t>
+          <t>2018-03-21 08:58:09</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>OMGBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>0.001694</t>
+          <t>0.000705</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr">
         <is>
-          <t>13.75</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>0.0232925</t>
+          <t>0.00846</t>
         </is>
       </c>
       <c r="G184" s="2" t="inlineStr">
         <is>
-          <t>0.01233181</t>
+          <t>0.00408099</t>
         </is>
       </c>
       <c r="H184" s="2" t="inlineStr">
@@ -7837,37 +7837,37 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:37:45</t>
+          <t>2018-03-21 08:58:09</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>MCOBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>0.000709</t>
+          <t>0.000705</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr">
         <is>
-          <t>32.42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>0.02298578</t>
+          <t>0.00282</t>
         </is>
       </c>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>0.01217418</t>
+          <t>0.00136033</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
@@ -7879,37 +7879,37 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:37:27</t>
+          <t>2018-03-21 08:58:09</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>LTCBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>0.02117</t>
+          <t>0.000705</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>0.0372592</t>
+          <t>0.0064155</t>
         </is>
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>0.01974144</t>
+          <t>0.00309475</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
@@ -7921,37 +7921,37 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:36:45</t>
+          <t>2018-03-21 08:58:09</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>EOSBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>0.00081209</t>
+          <t>0.000705</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
-          <t>0.01461762</t>
+          <t>0.00642255</t>
         </is>
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>0.00775185</t>
+          <t>0.00309815</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
@@ -7963,37 +7963,37 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:36:36</t>
+          <t>2018-03-21 08:58:09</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>CNDBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>0.00001422</t>
+          <t>0.000705</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F188" s="2" t="inlineStr">
         <is>
-          <t>0.02734506</t>
+          <t>0.007755</t>
         </is>
       </c>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>0.01448093</t>
+          <t>0.00374091</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
@@ -8005,37 +8005,37 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:36:28</t>
+          <t>2018-03-21 08:58:09</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>BTSBTC</t>
+          <t>HSRBTC</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>0.00002137</t>
+          <t>0.000705</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F189" s="2" t="inlineStr">
         <is>
-          <t>0.01000116</t>
+          <t>0.00846</t>
         </is>
       </c>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>0.00529661</t>
+          <t>0.00408099</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
@@ -8047,37 +8047,37 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:36:28</t>
+          <t>2018-03-21 08:29:49</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>BTSBTC</t>
+          <t>IOTABTC</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>0.00002137</t>
+          <t>0.0001566</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>0.02530208</t>
+          <t>0.0037584</t>
         </is>
       </c>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>0.01340042</t>
+          <t>0.00184434</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr">
@@ -8089,37 +8089,37 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:36:18</t>
+          <t>2018-03-21 08:29:49</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>BTGBTC</t>
+          <t>IOTABTC</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>0.011731</t>
+          <t>0.00015665</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>223</t>
         </is>
       </c>
       <c r="F191" s="2" t="inlineStr">
         <is>
-          <t>0.04293546</t>
+          <t>0.03493295</t>
         </is>
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>0.02274846</t>
+          <t>0.01713701</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
@@ -8131,7 +8131,7 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>2018-02-25 00:35:55</t>
+          <t>2018-03-21 08:29:49</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -8141,27 +8141,27 @@
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>0.00018236</t>
+          <t>0.00015659</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F192" s="2" t="inlineStr">
         <is>
-          <t>0.02881288</t>
+          <t>0.0125272</t>
         </is>
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>0.01527041</t>
+          <t>0.0061478</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
@@ -8173,40 +8173,1552 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>2018-02-24 15:53:28</t>
+          <t>2018-03-21 08:29:49</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
+          <t>IOTABTC</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>0.00015658</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="inlineStr">
+        <is>
+          <t>0.01111718</t>
+        </is>
+      </c>
+      <c r="G193" s="2" t="inlineStr">
+        <is>
+          <t>0.00545617</t>
+        </is>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 08:25:16</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>QTUMBTC</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>0.002254</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>0.0200606</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="inlineStr">
+        <is>
+          <t>0.00982592</t>
+        </is>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 08:25:16</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>QTUMBTC</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>0.002254</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>18.96</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>0.04273584</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="inlineStr">
+        <is>
+          <t>0.02093252</t>
+        </is>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 08:19:49</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>ETCBTC</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>0.002296</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>0.06281856</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="inlineStr">
+        <is>
+          <t>0.03075151</t>
+        </is>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 08:15:49</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>NANOBTC</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>0.0010056</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>60.3</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>0.06063768</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="inlineStr">
+        <is>
+          <t>0.02973423</t>
+        </is>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 08:09:16</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
           <t>ADABTC</t>
         </is>
       </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>0.00003076</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="F193" s="2" t="inlineStr">
-        <is>
-          <t>0.0096894</t>
-        </is>
-      </c>
-      <c r="G193" s="2" t="inlineStr">
-        <is>
-          <t>0.00519087</t>
-        </is>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>0.0000232</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
+        <is>
+          <t>1547</t>
+        </is>
+      </c>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>0.0358904</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="inlineStr">
+        <is>
+          <t>0.01750508</t>
+        </is>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 08:09:16</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>ADABTC</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>0.00002319</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>0.01347339</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="inlineStr">
+        <is>
+          <t>0.0065743</t>
+        </is>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 08:09:16</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>ADABTC</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>0.00002319</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>0.0134502</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="inlineStr">
+        <is>
+          <t>0.00656299</t>
+        </is>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 08:02:31</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>WTCBTC</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>0.0016045</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>0.04415584</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="inlineStr">
+        <is>
+          <t>0.02155836</t>
+        </is>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 07:55:21</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>WTCBTC</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>0.0016106</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>0.01666971</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="inlineStr">
+        <is>
+          <t>0.00809251</t>
+        </is>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 07:55:18</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>WTCBTC</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>0.0016074</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>0.001800288</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="inlineStr">
+        <is>
+          <t>0.00087344</t>
+        </is>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 07:54:47</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>ICXBTC</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>0.0003477</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>205.77</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>0.071546229</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="inlineStr">
+        <is>
+          <t>0.03474164</t>
+        </is>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 07:37:36</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>WTCBTC</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>0.0016312</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>0.033798464</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="inlineStr">
+        <is>
+          <t>0.01643329</t>
+        </is>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 07:37:36</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>WTCBTC</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>0.0016313</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>0.029999607</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="inlineStr">
+        <is>
+          <t>0.01458576</t>
+        </is>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 07:29:40</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>ADABTC</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>0.0000235</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>1229</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>0.0288815</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="inlineStr">
+        <is>
+          <t>0.01397194</t>
+        </is>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 07:29:21</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>ADABTC</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>0.0000235</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>0.025145</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="inlineStr">
+        <is>
+          <t>0.01216373</t>
+        </is>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 07:29:17</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>ADABTC</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>0.0000235</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>0.009541</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="inlineStr">
+        <is>
+          <t>0.00461538</t>
+        </is>
+      </c>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:35:50</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>WTCBTC</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>0.0016064</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>0.062826304</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="inlineStr">
+        <is>
+          <t>0.03058729</t>
+        </is>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:35:12</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>NANOBTC</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>0.0010418</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>0.004417232</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="inlineStr">
+        <is>
+          <t>0.00215926</t>
+        </is>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:35:10</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>NANOBTC</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>0.0010418</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>0.000385466</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="inlineStr">
+        <is>
+          <t>0.00018788</t>
+        </is>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:35:04</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>NANOBTC</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>0.0010418</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>17.04</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>0.017752272</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="inlineStr">
+        <is>
+          <t>0.00865036</t>
+        </is>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:35:04</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>NANOBTC</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>0.0010418</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>38.65</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>0.04026557</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="inlineStr">
+        <is>
+          <t>0.01964516</t>
+        </is>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:26:07</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>BTGBTC</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>0.007296</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>0.06281856</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="inlineStr">
+        <is>
+          <t>0.03072538</t>
+        </is>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:17:29</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>NEOBTC</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>0.008426</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>0.00117964</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="inlineStr">
+        <is>
+          <t>0.00057754</t>
+        </is>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:17:18</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>NEOBTC</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>0.008426</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>0.00910008</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="inlineStr">
+        <is>
+          <t>0.00445296</t>
+        </is>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:17:18</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>NEOBTC</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>0.008426</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>0.02249742</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="inlineStr">
+        <is>
+          <t>0.01102439</t>
+        </is>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:17:11</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>NEOBTC</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="inlineStr">
+        <is>
+          <t>0.008426</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>0.01002694</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="inlineStr">
+        <is>
+          <t>0.00490266</t>
+        </is>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:17:10</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>NEOBTC</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>0.008426</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>0.01002694</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="inlineStr">
+        <is>
+          <t>0.00489917</t>
+        </is>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:17:08</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>NEOBTC</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>0.008426</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>0.01002694</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="inlineStr">
+        <is>
+          <t>0.00489917</t>
+        </is>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:12:40</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>ADABTC</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>0.00002322</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>1272</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>0.02953584</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="inlineStr">
+        <is>
+          <t>0.01442262</t>
+        </is>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 06:12:40</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>ADABTC</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>0.00002322</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>0.03327426</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="inlineStr">
+        <is>
+          <t>0.01624813</t>
+        </is>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 05:40:50</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>ICXBTC</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>0.0003053</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>0.023431775</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="inlineStr">
+        <is>
+          <t>0.01138127</t>
+        </is>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 05:40:50</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>ICXBTC</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>0.0003053</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>0.0073272</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="inlineStr">
+        <is>
+          <t>0.00355896</t>
+        </is>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 05:40:43</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>ICXBTC</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>0.0003053</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>0.0094643</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="inlineStr">
+        <is>
+          <t>0.00459699</t>
+        </is>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 05:40:42</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>ICXBTC</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>0.0003053</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>0.008908654</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="inlineStr">
+        <is>
+          <t>0.00432753</t>
+        </is>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 05:40:42</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>ICXBTC</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>0.0003051</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>0.013680684</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="inlineStr">
+        <is>
+          <t>0.00664998</t>
+        </is>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>2018-03-21 04:39:52</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>IOTABTC</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr">
+        <is>
+          <t>0.00016278</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>0.01123182</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="inlineStr">
+        <is>
+          <t>0.00542395</t>
+        </is>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
